--- a/data/Vaccine profile assumptions.xlsx
+++ b/data/Vaccine profile assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8F4AFC-5DC8-4D9D-98CB-05550A5802A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB6274-5C25-442C-B2B6-86C55C15DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -2587,9 +2587,6 @@
     <t>10 to 29 year</t>
   </si>
   <si>
-    <t>below 20</t>
-  </si>
-  <si>
     <t>BSI, CNS infections, Cardiac infections, LRI</t>
   </si>
   <si>
@@ -2618,6 +2615,9 @@
   </si>
   <si>
     <t>Group A Streptococcus</t>
+  </si>
+  <si>
+    <t>below 35</t>
   </si>
 </sst>
 </file>
@@ -4812,8 +4812,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4988,7 +4988,7 @@
         <v>261</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -5026,7 +5026,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -5064,7 +5064,7 @@
         <v>268</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -5102,7 +5102,7 @@
         <v>351</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -5140,7 +5140,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -5181,7 +5181,7 @@
         <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -5219,7 +5219,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -5257,7 +5257,7 @@
         <v>298</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5295,7 +5295,7 @@
         <v>301</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -5371,7 +5371,7 @@
         <v>307</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -5447,7 +5447,7 @@
         <v>320</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -5512,7 +5512,7 @@
         <v>362</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
@@ -5523,7 +5523,7 @@
         <v>329</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -5599,7 +5599,7 @@
         <v>337</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -5620,7 +5620,7 @@
         <v>77</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>378</v>
@@ -5640,7 +5640,7 @@
         <v>341</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22">
         <v>70</v>
@@ -5661,7 +5661,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>378</v>
@@ -6751,21 +6751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -6949,31 +6934,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6989,4 +6965,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Vaccine profile assumptions.xlsx
+++ b/data/Vaccine profile assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB6274-5C25-442C-B2B6-86C55C15DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D905D-2912-4C05-B5C3-94123464DD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="390">
   <si>
     <t>Who</t>
   </si>
@@ -2576,9 +2576,6 @@
   </si>
   <si>
     <t>under 5, 60 years and above</t>
-  </si>
-  <si>
-    <t>6 weeks and above</t>
   </si>
   <si>
     <t>10 week (effective at 12 week)</t>
@@ -4813,7 +4810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4988,7 +4985,7 @@
         <v>261</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -5026,7 +5023,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -5064,7 +5061,7 @@
         <v>268</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -5102,7 +5099,7 @@
         <v>351</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -5140,7 +5137,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -5164,7 +5161,7 @@
         <v>356</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>364</v>
@@ -5181,7 +5178,7 @@
         <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -5219,7 +5216,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -5257,7 +5254,7 @@
         <v>298</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5295,7 +5292,7 @@
         <v>301</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -5322,7 +5319,7 @@
         <v>365</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L13" s="39" t="s">
         <v>363</v>
@@ -5360,7 +5357,7 @@
         <v>366</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L14" s="39" t="s">
         <v>24</v>
@@ -5371,7 +5368,7 @@
         <v>307</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -5447,7 +5444,7 @@
         <v>320</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -5512,7 +5509,7 @@
         <v>362</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
@@ -5523,7 +5520,7 @@
         <v>329</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -5599,7 +5596,7 @@
         <v>337</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -5620,10 +5617,10 @@
         <v>77</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>364</v>
@@ -5640,7 +5637,7 @@
         <v>341</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C22">
         <v>70</v>
@@ -5661,10 +5658,10 @@
         <v>18</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>364</v>
@@ -6751,6 +6748,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -6934,15 +6940,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6950,6 +6947,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6963,14 +6968,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Vaccine profile assumptions.xlsx
+++ b/data/Vaccine profile assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D905D-2912-4C05-B5C3-94123464DD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1ED14B-1EC2-4E3E-9741-ADEBE0BC3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -2581,9 +2581,6 @@
     <t>10 week (effective at 12 week)</t>
   </si>
   <si>
-    <t>10 to 29 year</t>
-  </si>
-  <si>
     <t>BSI, CNS infections, Cardiac infections, LRI</t>
   </si>
   <si>
@@ -2615,6 +2612,9 @@
   </si>
   <si>
     <t>below 35</t>
+  </si>
+  <si>
+    <t>10 to 34 year</t>
   </si>
 </sst>
 </file>
@@ -4809,8 +4809,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4985,7 +4985,7 @@
         <v>261</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -5023,7 +5023,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -5061,7 +5061,7 @@
         <v>268</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -5099,7 +5099,7 @@
         <v>351</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -5137,7 +5137,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -5178,7 +5178,7 @@
         <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -5216,7 +5216,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -5254,7 +5254,7 @@
         <v>298</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5292,7 +5292,7 @@
         <v>301</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -5357,7 +5357,7 @@
         <v>366</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="L14" s="39" t="s">
         <v>24</v>
@@ -5368,7 +5368,7 @@
         <v>307</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -5444,7 +5444,7 @@
         <v>320</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -5509,7 +5509,7 @@
         <v>362</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
@@ -5520,7 +5520,7 @@
         <v>329</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -5596,7 +5596,7 @@
         <v>337</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -5617,7 +5617,7 @@
         <v>77</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>377</v>
@@ -5637,7 +5637,7 @@
         <v>341</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22">
         <v>70</v>
@@ -5658,7 +5658,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>377</v>
@@ -5684,8 +5684,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6748,12 +6748,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6941,15 +6938,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6973,17 +6981,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Vaccine profile assumptions.xlsx
+++ b/data/Vaccine profile assumptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1ED14B-1EC2-4E3E-9741-ADEBE0BC3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16F4FF-B27A-40DB-AD12-88E5E08153C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -2545,9 +2545,6 @@
     <t>60 year</t>
   </si>
   <si>
-    <t>10 year</t>
-  </si>
-  <si>
     <t>above 10</t>
   </si>
   <si>
@@ -2615,6 +2612,9 @@
   </si>
   <si>
     <t>10 to 34 year</t>
+  </si>
+  <si>
+    <t>15 year</t>
   </si>
 </sst>
 </file>
@@ -4809,7 +4809,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4854,16 +4854,16 @@
         <v>354</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>369</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>370</v>
       </c>
       <c r="L1" s="38" t="s">
         <v>353</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="156" x14ac:dyDescent="0.3">
@@ -4898,7 +4898,7 @@
         <v>365</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>24</v>
@@ -4936,7 +4936,7 @@
         <v>365</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L3" s="41" t="s">
         <v>363</v>
@@ -4974,7 +4974,7 @@
         <v>365</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>24</v>
@@ -4985,7 +4985,7 @@
         <v>261</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -5023,7 +5023,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -5047,10 +5047,10 @@
         <v>356</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>363</v>
@@ -5061,7 +5061,7 @@
         <v>268</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -5085,10 +5085,10 @@
         <v>358</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>24</v>
@@ -5099,7 +5099,7 @@
         <v>351</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -5137,7 +5137,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -5161,7 +5161,7 @@
         <v>356</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>364</v>
@@ -5170,7 +5170,7 @@
         <v>24</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
@@ -5178,7 +5178,7 @@
         <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>363</v>
@@ -5216,7 +5216,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -5240,10 +5240,10 @@
         <v>356</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L11" s="39" t="s">
         <v>24</v>
@@ -5254,7 +5254,7 @@
         <v>298</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5281,7 +5281,7 @@
         <v>365</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L12" s="39" t="s">
         <v>24</v>
@@ -5292,7 +5292,7 @@
         <v>301</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -5319,7 +5319,7 @@
         <v>365</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L13" s="39" t="s">
         <v>363</v>
@@ -5354,10 +5354,10 @@
         <v>359</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L14" s="39" t="s">
         <v>24</v>
@@ -5368,7 +5368,7 @@
         <v>307</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -5433,7 +5433,7 @@
         <v>365</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L16" s="41" t="s">
         <v>24</v>
@@ -5444,7 +5444,7 @@
         <v>320</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -5509,7 +5509,7 @@
         <v>362</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
@@ -5520,7 +5520,7 @@
         <v>329</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -5582,10 +5582,10 @@
         <v>356</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>24</v>
@@ -5596,7 +5596,7 @@
         <v>337</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -5617,10 +5617,10 @@
         <v>77</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>364</v>
@@ -5629,7 +5629,7 @@
         <v>363</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
@@ -5637,7 +5637,7 @@
         <v>341</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22">
         <v>70</v>
@@ -5658,10 +5658,10 @@
         <v>18</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>364</v>
@@ -6754,6 +6754,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -6937,15 +6946,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
   <ds:schemaRefs>
@@ -6963,6 +6963,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6978,12 +6986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>